--- a/UrbanLadderPOM/src/main/resources/objectRepository/UrbanLadder.xlsx
+++ b/UrbanLadderPOM/src/main/resources/objectRepository/UrbanLadder.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="31">
   <si>
     <t>Name</t>
   </si>

--- a/UrbanLadderPOM/src/main/resources/objectRepository/UrbanLadder.xlsx
+++ b/UrbanLadderPOM/src/main/resources/objectRepository/UrbanLadder.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -110,6 +110,105 @@
   </si>
   <si>
     <t>EMI From ₹267</t>
+  </si>
+  <si>
+    <t>Austen Bookshelf/Display Unit</t>
+  </si>
+  <si>
+    <t>₹10,399</t>
+  </si>
+  <si>
+    <t>EMI From ₹505</t>
+  </si>
+  <si>
+    <t>(45-Book Capacity) (Mahogany Finish)</t>
+  </si>
+  <si>
+    <t>(45-Book Capacity) (Teak Finish)</t>
+  </si>
+  <si>
+    <t>Elian Study Chair</t>
+  </si>
+  <si>
+    <t>(Black)</t>
+  </si>
+  <si>
+    <t>Galen Study Chair</t>
+  </si>
+  <si>
+    <t>Eisner Study Chair</t>
+  </si>
+  <si>
+    <t>Hawley Study Chair</t>
+  </si>
+  <si>
+    <t>₹6,999</t>
+  </si>
+  <si>
+    <t>EMI From ₹340</t>
+  </si>
+  <si>
+    <t>(Teak Finish)</t>
+  </si>
+  <si>
+    <t>(Mahogany Finish)</t>
+  </si>
+  <si>
+    <t>Edmund Study Chair</t>
+  </si>
+  <si>
+    <t>Aurelio Study Chair</t>
+  </si>
+  <si>
+    <t>₹8,599</t>
+  </si>
+  <si>
+    <t>EMI From ₹417</t>
+  </si>
+  <si>
+    <t>(Mahogany Finish, Olive)</t>
+  </si>
+  <si>
+    <t>Blake Study Chair</t>
+  </si>
+  <si>
+    <t>₹6,499</t>
+  </si>
+  <si>
+    <t>EMI From ₹316</t>
+  </si>
+  <si>
+    <t>Venturi Study Chair-3 Axis Adjustable</t>
+  </si>
+  <si>
+    <t>(Aqua)</t>
+  </si>
+  <si>
+    <t>(Carbon Black)</t>
+  </si>
+  <si>
+    <t>(Ash Grey)</t>
+  </si>
+  <si>
+    <t>Monza Wall Shelf</t>
+  </si>
+  <si>
+    <t>₹5,799</t>
+  </si>
+  <si>
+    <t>EMI From ₹282</t>
+  </si>
+  <si>
+    <t>Grisham Wall Mounted Study Table</t>
+  </si>
+  <si>
+    <t>₹6,899</t>
+  </si>
+  <si>
+    <t>EMI From ₹335</t>
+  </si>
+  <si>
+    <t>(Smoked Walnut Finish)</t>
   </si>
 </sst>
 </file>
@@ -464,7 +563,7 @@
     <row r="4" spans="1:5">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>4</v>
@@ -477,7 +576,7 @@
     <row r="5" spans="1:5">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>4</v>
@@ -576,81 +675,145 @@
     <row r="5" spans="1:6">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>55</v>
+      </c>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F13" s="1"/>
     </row>
   </sheetData>

--- a/UrbanLadderPOM/src/main/resources/objectRepository/UrbanLadder.xlsx
+++ b/UrbanLadderPOM/src/main/resources/objectRepository/UrbanLadder.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
